--- a/Trunk_tools/weapons.xlsx
+++ b/Trunk_tools/weapons.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>武器名</t>
   </si>
@@ -40,74 +40,110 @@
     <t>VaildShootRange</t>
   </si>
   <si>
+    <t>RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParameterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超究极紫荆之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,0,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whrer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParameterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEP_3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超究极紫荆之剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_Fire_ChainSaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_Thunder_Ray</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,133 +484,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>3001</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>4001</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>4001</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Trunk_tools/weapons.xlsx
+++ b/Trunk_tools/weapons.xlsx
@@ -40,10 +40,6 @@
     <t>VaildShootRange</t>
   </si>
   <si>
-    <t>RT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超究极紫荆之剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +137,12 @@
   <si>
     <t>Weapon_Thunder_Ray</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_ChainSaw</t>
+  </si>
+  <si>
+    <t>Thunder_Ray</t>
   </si>
 </sst>
 </file>
@@ -484,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,172 +497,172 @@
     <col min="5" max="5" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>3001</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>4001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>3001</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>4001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
